--- a/TataCliq/TestData/InputData.xlsx
+++ b/TataCliq/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\197153\source\repos\Amariya96\MiniProject\TataCliq\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B45021A-495B-4E06-8F8A-458397D3759C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35988C6-09FC-4F3B-AEB4-B330610B884E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6789547689</v>
+        <v>8547418212</v>
       </c>
     </row>
   </sheetData>
